--- a/Gantt Chart v2.xlsx
+++ b/Gantt Chart v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sotonac-my.sharepoint.com/personal/mhby1g21_soton_ac_uk/Documents/COURSES/Y3/COMP3200/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{C3CA2CC6-0DAB-4EE8-BF72-DA77E1ADD059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4FC9150-27C7-4039-BB89-3C9EC857E891}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{C3CA2CC6-0DAB-4EE8-BF72-DA77E1ADD059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAEA29DD-8839-4F64-804B-BC41E8223C49}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10650" yWindow="1395" windowWidth="9015" windowHeight="5820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6390" yWindow="765" windowWidth="26070" windowHeight="12870" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Important dates" sheetId="4" r:id="rId1"/>
@@ -5023,7 +5023,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5817,8 +5817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F12609-C238-4402-9A8B-B1D994A238B7}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
